--- a/biology/Médecine/Tendinite_de_l'appareil_extenseur_du_genou/Tendinite_de_l'appareil_extenseur_du_genou.xlsx
+++ b/biology/Médecine/Tendinite_de_l'appareil_extenseur_du_genou/Tendinite_de_l'appareil_extenseur_du_genou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tendinite_de_l%27appareil_extenseur_du_genou</t>
+          <t>Tendinite_de_l'appareil_extenseur_du_genou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tendinite de l'appareil extenseur du genou correspond à l'inflammation des tendons ou de leur gaine de l'appareil musculaire extenseur du genou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tendinite_de_l%27appareil_extenseur_du_genou</t>
+          <t>Tendinite_de_l'appareil_extenseur_du_genou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rappel anatomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon est la partie fibreuse qui relie le muscle à l'os. Il glisse à l’intérieur d’une gaine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tendinite_de_l%27appareil_extenseur_du_genou</t>
+          <t>Tendinite_de_l'appareil_extenseur_du_genou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Tendon rotulien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'atteinte du tendon rotulien est de loin la tendinite la plus fréquente du genou : 80 %. Elle concerne tous les sports d’impulsions : basket, volley, saut, football, karaté… mais aussi le cyclisme.
 Le diagnostic est clinique :
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tendinite_de_l%27appareil_extenseur_du_genou</t>
+          <t>Tendinite_de_l'appareil_extenseur_du_genou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Tendon du quadriceps</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’atteinte du tendon du muscle quadriceps est assez peu fréquente : 10 %. Elle succède assez souvent à une rupture partielle du tendon. Elle est assez spécifique aux sports comme l’haltérophilie, le volley, l’escrime, le cyclisme.
 Le diagnostic est clinique :
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tendinite_de_l%27appareil_extenseur_du_genou</t>
+          <t>Tendinite_de_l'appareil_extenseur_du_genou</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En phase aigüe le traitement est médical :
 la principale mesure est le repos. C’est aussi la plus difficile à obtenir chez le sportif. Ce repos sera relatif mais long. D’une durée de 6 semaines minimum il peut atteindre 6 mois.
